--- a/test/mac_repair/selenium/TC02d_test_cases.xlsx
+++ b/test/mac_repair/selenium/TC02d_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EEWorkspace\mac_repair\test\mac_repair\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5536EB-52A1-4C1E-8A4A-2BB6F0543153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85125D31-D256-4C03-891D-B4599D32F164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3048" yWindow="3612" windowWidth="17280" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>rep</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Estimate of Repair</t>
+  </si>
+  <si>
+    <t>repTest</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,7 +548,7 @@
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -569,34 +569,34 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -604,40 +604,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
